--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52811\Documents\TradingHorse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52811\Documents\Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31EA8EB-EDF9-4F6E-AC8B-7114E768B161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC93B30-D086-4C39-A533-523502E665E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90BC35EF-FEB5-4413-9E2B-5CD48E63D876}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:J1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +652,7 @@
         <v>0.15</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>0.15</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
